--- a/examples/工具设置/字段匹配.xlsx
+++ b/examples/工具设置/字段匹配.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weidan\Documents\projects\erp321-tool\工具设置\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUAWEI\Documents\软件\聚水潭导单回单工具\工具设置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB990FC-A3D1-4701-B787-7A2FF521AA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A075A2F-51DF-494B-94A5-38EB3C662C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="4400" windowWidth="28800" windowHeight="15370" xr2:uid="{29AD811B-1053-458C-A6A8-6E55EB69828F}"/>
+    <workbookView xWindow="44880" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{29AD811B-1053-458C-A6A8-6E55EB69828F}"/>
   </bookViews>
   <sheets>
     <sheet name="表名称对应关系" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="85">
   <si>
     <t>线上订单号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,6 +300,50 @@
   </si>
   <si>
     <t>ERP字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快团团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团长</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -307,7 +351,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,6 +364,22 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -346,8 +406,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -664,26 +730,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF47EBDB-88F7-4136-A0CE-B6DBCAF1696C}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.9140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.796875" customWidth="1"/>
+    <col min="7" max="7" width="24.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.9296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>73</v>
       </c>
@@ -700,16 +769,20 @@
         <v>28</v>
       </c>
       <c r="F1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -726,16 +799,20 @@
         <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s">
         <v>37</v>
       </c>
       <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -752,13 +829,17 @@
         <v>23</v>
       </c>
       <c r="F3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" t="s">
         <v>38</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -771,14 +852,15 @@
       <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>39</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -795,16 +877,20 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
         <v>25</v>
       </c>
       <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -821,16 +907,20 @@
         <v>29</v>
       </c>
       <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
         <v>40</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>26</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -847,16 +937,20 @@
         <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
         <v>68</v>
       </c>
       <c r="H7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -873,13 +967,17 @@
         <v>9</v>
       </c>
       <c r="F8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" t="s">
         <v>41</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -896,35 +994,47 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
       </c>
       <c r="H9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>31</v>
       </c>
       <c r="E10" t="s">
         <v>32</v>
       </c>
-      <c r="H10" t="s">
+      <c r="F10" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>33</v>
       </c>
       <c r="E11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -944,13 +1054,17 @@
         <v>45</v>
       </c>
       <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -969,8 +1083,12 @@
       <c r="F13" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -989,8 +1107,12 @@
       <c r="F14" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -1006,15 +1128,16 @@
       <c r="E15" t="s">
         <v>69</v>
       </c>
-      <c r="F15" t="s">
-        <v>69</v>
-      </c>
       <c r="G15" t="s">
         <v>69</v>
       </c>
       <c r="H15" t="s">
         <v>69</v>
       </c>
+      <c r="I15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1027,16 +1150,19 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="40.08203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.06640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
       <c r="B1" t="s">
         <v>21</v>
       </c>
@@ -1044,7 +1170,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -1052,7 +1178,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -1060,7 +1186,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>51</v>
       </c>

--- a/examples/工具设置/字段匹配.xlsx
+++ b/examples/工具设置/字段匹配.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUAWEI\Documents\软件\聚水潭导单回单工具\工具设置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A075A2F-51DF-494B-94A5-38EB3C662C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F08CB3-2310-4E92-9315-D3BEB0DD7E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44880" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{29AD811B-1053-458C-A6A8-6E55EB69828F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{29AD811B-1053-458C-A6A8-6E55EB69828F}"/>
   </bookViews>
   <sheets>
     <sheet name="表名称对应关系" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="86">
   <si>
     <t>线上订单号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -344,6 +344,10 @@
   </si>
   <si>
     <t>团长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇门Wms-零元生活</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -733,7 +737,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J15"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1057,7 +1061,7 @@
         <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="I12" t="s">
         <v>64</v>

--- a/examples/工具设置/字段匹配.xlsx
+++ b/examples/工具设置/字段匹配.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUAWEI\Documents\软件\聚水潭导单回单工具\工具设置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F08CB3-2310-4E92-9315-D3BEB0DD7E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53B924B-59D4-4F63-B3CF-100F500AB270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{29AD811B-1053-458C-A6A8-6E55EB69828F}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="95">
   <si>
     <t>线上订单号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,22 +208,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ZHZ1250</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下厨房黑猪鲜肉小笼包135g（共5只）/袋*8袋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下厨房黑猪鲜肉小笼包135g（共5只）/袋*12袋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZHZ1251</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>下厨房『扑扑虾滑』8盒装(下单赠蟹柳)150g×8盒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -349,13 +333,57 @@
   <si>
     <t>奇门Wms-零元生活</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZHZ0861</t>
+  </si>
+  <si>
+    <t>下厨房『扑扑虾滑』盒装(下单赠调味料2袋)150g*6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团员备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下厨房『扑扑虾滑』5盒装(下单赠调味料一袋)150g*5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZHZ0549</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VTN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付时间</t>
+  </si>
+  <si>
+    <t>收件人</t>
+  </si>
+  <si>
+    <t>手机号</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>单价</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>平台订单号</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,6 +415,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -410,7 +446,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -418,6 +454,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -734,262 +773,290 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF47EBDB-88F7-4136-A0CE-B6DBCAF1696C}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.796875" customWidth="1"/>
-    <col min="7" max="7" width="24.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.9296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.796875" customWidth="1"/>
+    <col min="8" max="8" width="24.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.9296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" t="s">
-        <v>75</v>
-      </c>
       <c r="G1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>46</v>
       </c>
-      <c r="I1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>35</v>
       </c>
-      <c r="F2" t="s">
-        <v>76</v>
-      </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="H2" t="s">
         <v>37</v>
       </c>
       <c r="I2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
       </c>
       <c r="E3" t="s">
         <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" t="s">
         <v>38</v>
       </c>
-      <c r="I3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>24</v>
       </c>
       <c r="G4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" t="s">
         <v>39</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" t="s">
-        <v>80</v>
-      </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="H5" t="s">
         <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>58</v>
-      </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>29</v>
       </c>
-      <c r="F6" t="s">
-        <v>82</v>
-      </c>
       <c r="G6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" t="s">
         <v>40</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>26</v>
       </c>
-      <c r="I6" t="s">
-        <v>59</v>
-      </c>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>30</v>
       </c>
-      <c r="F7" t="s">
-        <v>81</v>
-      </c>
       <c r="G7" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="H7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+        <v>64</v>
+      </c>
+      <c r="J7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
-        <v>54</v>
-      </c>
       <c r="E8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" t="s">
-        <v>78</v>
-      </c>
       <c r="G8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" t="s">
         <v>41</v>
       </c>
-      <c r="I8" t="s">
-        <v>61</v>
-      </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" t="s">
         <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -998,61 +1065,67 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="H9" t="s">
         <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>62</v>
-      </c>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+      <c r="J9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="E10" t="s">
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" t="s">
         <v>32</v>
       </c>
-      <c r="F10" t="s">
-        <v>83</v>
-      </c>
-      <c r="I10" t="s">
-        <v>63</v>
-      </c>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="G10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>33</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>34</v>
       </c>
-      <c r="F11" t="s">
-        <v>84</v>
-      </c>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="G11" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>42</v>
       </c>
       <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
         <v>43</v>
       </c>
-      <c r="C12" t="s">
-        <v>52</v>
-      </c>
       <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
         <v>44</v>
-      </c>
-      <c r="E12" t="s">
-        <v>45</v>
       </c>
       <c r="F12" t="s">
         <v>45</v>
@@ -1061,87 +1134,102 @@
         <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="I12" t="s">
-        <v>64</v>
-      </c>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+      <c r="J12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" t="s">
+        <v>61</v>
+      </c>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
         <v>65</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C15" t="s">
         <v>65</v>
       </c>
-      <c r="C13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="D15" t="s">
         <v>65</v>
       </c>
-      <c r="E13" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E15" t="s">
         <v>65</v>
       </c>
-      <c r="G13" t="s">
+      <c r="F15" t="s">
         <v>65</v>
       </c>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" t="s">
-        <v>66</v>
-      </c>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" t="s">
-        <v>69</v>
-      </c>
       <c r="G15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I15" t="s">
-        <v>69</v>
-      </c>
-      <c r="J15" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="J15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1151,51 +1239,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C8D73C-0454-4CCD-B350-B46CBFEB949E}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="40.06640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" t="s">
-        <v>53</v>
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
